--- a/data/pca/factorExposure/factorExposure_2012-10-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-10-25.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002118259602816273</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001799672870873717</v>
+      </c>
+      <c r="C2">
+        <v>0.02942024343320097</v>
+      </c>
+      <c r="D2">
+        <v>0.005145856624677276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0009367941347575842</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.007002457604520351</v>
+      </c>
+      <c r="C4">
+        <v>0.08294470481088534</v>
+      </c>
+      <c r="D4">
+        <v>0.07498198448338256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.001210190986594586</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01389327812715353</v>
+      </c>
+      <c r="C6">
+        <v>0.11339608117782</v>
+      </c>
+      <c r="D6">
+        <v>0.02280708722545432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.0009859791207786817</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004933026624755155</v>
+      </c>
+      <c r="C7">
+        <v>0.05862067827901093</v>
+      </c>
+      <c r="D7">
+        <v>0.03202686687145906</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0004191771690660837</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005628598411780295</v>
+      </c>
+      <c r="C8">
+        <v>0.03476674087449376</v>
+      </c>
+      <c r="D8">
+        <v>0.04160162724552552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003180349717609812</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005098392601720656</v>
+      </c>
+      <c r="C9">
+        <v>0.07131288971656591</v>
+      </c>
+      <c r="D9">
+        <v>0.07545327506834658</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.001368296958068104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005679785888231889</v>
+      </c>
+      <c r="C10">
+        <v>0.05724879953609697</v>
+      </c>
+      <c r="D10">
+        <v>-0.1967267113183491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003341193601783105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005688928081382908</v>
+      </c>
+      <c r="C11">
+        <v>0.07974107150405536</v>
+      </c>
+      <c r="D11">
+        <v>0.06425438093484465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.001048206404723104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004079639849617332</v>
+      </c>
+      <c r="C12">
+        <v>0.06477940858178473</v>
+      </c>
+      <c r="D12">
+        <v>0.05076609237313814</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002320938953692815</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008670912331321128</v>
+      </c>
+      <c r="C13">
+        <v>0.06943428930703957</v>
+      </c>
+      <c r="D13">
+        <v>0.05830117712004715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002042416776176935</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0008188868613842746</v>
+      </c>
+      <c r="C14">
+        <v>0.04339054921782768</v>
+      </c>
+      <c r="D14">
+        <v>0.008544674036497462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.00101719098225895</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005982554783134787</v>
+      </c>
+      <c r="C15">
+        <v>0.04076350416840513</v>
+      </c>
+      <c r="D15">
+        <v>0.02972871074648246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001381945471414143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005041610620335035</v>
+      </c>
+      <c r="C16">
+        <v>0.06429747152046153</v>
+      </c>
+      <c r="D16">
+        <v>0.05627469837492517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0005967196330597291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.00909036295049262</v>
+      </c>
+      <c r="C20">
+        <v>0.06494228666262904</v>
+      </c>
+      <c r="D20">
+        <v>0.04710682093663973</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.007036177782751854</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009694865830233292</v>
+      </c>
+      <c r="C21">
+        <v>0.02030219303799753</v>
+      </c>
+      <c r="D21">
+        <v>0.04294016404672182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01527577661260697</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.00640743863456928</v>
+      </c>
+      <c r="C22">
+        <v>0.08923158714631951</v>
+      </c>
+      <c r="D22">
+        <v>0.1179246617605299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01515903235137911</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006221490621976651</v>
+      </c>
+      <c r="C23">
+        <v>0.08967911751128337</v>
+      </c>
+      <c r="D23">
+        <v>0.1189995772163451</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002638811009484539</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.00557654237071378</v>
+      </c>
+      <c r="C24">
+        <v>0.0758986820588511</v>
+      </c>
+      <c r="D24">
+        <v>0.06770840767296019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004345848875904932</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003186612067558136</v>
+      </c>
+      <c r="C25">
+        <v>0.0784199490864851</v>
+      </c>
+      <c r="D25">
+        <v>0.06572384497101916</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.003286590151052062</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003695584788578644</v>
+      </c>
+      <c r="C26">
+        <v>0.03921576249874002</v>
+      </c>
+      <c r="D26">
+        <v>0.02533356675775638</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007627288808493703</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001411076361910263</v>
+      </c>
+      <c r="C28">
+        <v>0.1040269021730118</v>
+      </c>
+      <c r="D28">
+        <v>-0.3229109482544048</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001101175159056297</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.00262329946937633</v>
+      </c>
+      <c r="C29">
+        <v>0.04878382436634166</v>
+      </c>
+      <c r="D29">
+        <v>0.00892963545467107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.005570197674328779</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.00969455296029524</v>
+      </c>
+      <c r="C30">
+        <v>0.1417450848546286</v>
+      </c>
+      <c r="D30">
+        <v>0.1077061585457028</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0004746981961985012</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006273295974842229</v>
+      </c>
+      <c r="C31">
+        <v>0.04441867618316427</v>
+      </c>
+      <c r="D31">
+        <v>0.03025247507248023</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0003648228781531856</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003646614890119097</v>
+      </c>
+      <c r="C32">
+        <v>0.04053945208097796</v>
+      </c>
+      <c r="D32">
+        <v>0.0257360097394054</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002617671882725929</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008854974111588344</v>
+      </c>
+      <c r="C33">
+        <v>0.08723902003175794</v>
+      </c>
+      <c r="D33">
+        <v>0.06681133177810647</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004411145336808476</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004091858612403168</v>
+      </c>
+      <c r="C34">
+        <v>0.05774961021263284</v>
+      </c>
+      <c r="D34">
+        <v>0.05762743746148082</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0004231800877376349</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005211495027027461</v>
+      </c>
+      <c r="C35">
+        <v>0.04109283371827348</v>
+      </c>
+      <c r="D35">
+        <v>0.01925919359705554</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004583729060353011</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001176907639198767</v>
+      </c>
+      <c r="C36">
+        <v>0.02515310926132007</v>
+      </c>
+      <c r="D36">
+        <v>0.0253688769818163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.001067272423344979</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009182167510882562</v>
+      </c>
+      <c r="C38">
+        <v>0.03673764775073071</v>
+      </c>
+      <c r="D38">
+        <v>0.01592780676834308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01342426828773255</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0009493324474173885</v>
+      </c>
+      <c r="C39">
+        <v>0.1143156414867574</v>
+      </c>
+      <c r="D39">
+        <v>0.07855827243030689</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.007410198573318379</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003732582230104389</v>
+      </c>
+      <c r="C40">
+        <v>0.09099429607547474</v>
+      </c>
+      <c r="D40">
+        <v>0.01519097739821885</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0007488537991498081</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007134171303968392</v>
+      </c>
+      <c r="C41">
+        <v>0.03832360291671776</v>
+      </c>
+      <c r="D41">
+        <v>0.03926911651910833</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002998552351809389</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.00391527956199183</v>
+      </c>
+      <c r="C43">
+        <v>0.05340965648608135</v>
+      </c>
+      <c r="D43">
+        <v>0.02723725051739534</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.0131750814985853</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003039488673868854</v>
+      </c>
+      <c r="C44">
+        <v>0.1062923733973869</v>
+      </c>
+      <c r="D44">
+        <v>0.06735147149608257</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001165386016878856</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.00177200639945483</v>
+      </c>
+      <c r="C46">
+        <v>0.0329577803075277</v>
+      </c>
+      <c r="D46">
+        <v>0.0336075682394192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.002096498640792063</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002205617698457924</v>
+      </c>
+      <c r="C47">
+        <v>0.03650732619287314</v>
+      </c>
+      <c r="D47">
+        <v>0.02074793336411822</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004069601000993621</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.00663939257932864</v>
+      </c>
+      <c r="C48">
+        <v>0.03009773292215112</v>
+      </c>
+      <c r="D48">
+        <v>0.03682637881646598</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.009889959557170478</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01735734741191603</v>
+      </c>
+      <c r="C49">
+        <v>0.1883030575933696</v>
+      </c>
+      <c r="D49">
+        <v>0.006677491445931043</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001373718980394721</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003520942244941943</v>
+      </c>
+      <c r="C50">
+        <v>0.04298640929284835</v>
+      </c>
+      <c r="D50">
+        <v>0.03881918013934059</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0006962876687214952</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004776515024347805</v>
+      </c>
+      <c r="C51">
+        <v>0.0256819824797237</v>
+      </c>
+      <c r="D51">
+        <v>0.02242837995093358</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001467817821680162</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02117129300806539</v>
+      </c>
+      <c r="C53">
+        <v>0.170108862081423</v>
+      </c>
+      <c r="D53">
+        <v>0.02466188060354469</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.002197235233999405</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008916725619611359</v>
+      </c>
+      <c r="C54">
+        <v>0.0543999465222722</v>
+      </c>
+      <c r="D54">
+        <v>0.04441331782868412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004080610265143411</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009621881865294397</v>
+      </c>
+      <c r="C55">
+        <v>0.1086169772712093</v>
+      </c>
+      <c r="D55">
+        <v>0.03896667786496445</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.00257098286926283</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.0200184363436233</v>
+      </c>
+      <c r="C56">
+        <v>0.1761475744117383</v>
+      </c>
+      <c r="D56">
+        <v>0.01449705848643909</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.004650013822329691</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01960163593450557</v>
+      </c>
+      <c r="C58">
+        <v>0.1090307273091206</v>
+      </c>
+      <c r="D58">
+        <v>0.06479734215951273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.009390408654328187</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.00985214963129424</v>
+      </c>
+      <c r="C59">
+        <v>0.1649066198997503</v>
+      </c>
+      <c r="D59">
+        <v>-0.3381388219822891</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003931985802835898</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.025155847060398</v>
+      </c>
+      <c r="C60">
+        <v>0.2246000304161203</v>
+      </c>
+      <c r="D60">
+        <v>0.02267746072706507</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01372552657407508</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001888992951078818</v>
+      </c>
+      <c r="C61">
+        <v>0.0945084815364346</v>
+      </c>
+      <c r="D61">
+        <v>0.05872357328768777</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1587848795219686</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1486815300461441</v>
+      </c>
+      <c r="C62">
+        <v>0.09541770646152516</v>
+      </c>
+      <c r="D62">
+        <v>0.02712707340868983</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0001650162273701648</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006623892806743211</v>
+      </c>
+      <c r="C63">
+        <v>0.05428248652451432</v>
+      </c>
+      <c r="D63">
+        <v>0.03071642672068616</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.002110231349635867</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01585863719494772</v>
+      </c>
+      <c r="C64">
+        <v>0.1040570777974126</v>
+      </c>
+      <c r="D64">
+        <v>0.05767046815973142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002324809682886759</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01792638165973531</v>
+      </c>
+      <c r="C65">
+        <v>0.1236773488567752</v>
+      </c>
+      <c r="D65">
+        <v>0.02021705110759647</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.00431834986121628</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01341439533899567</v>
+      </c>
+      <c r="C66">
+        <v>0.1588725485061994</v>
+      </c>
+      <c r="D66">
+        <v>0.1134757203075449</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003032408296336863</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01547902764223687</v>
+      </c>
+      <c r="C67">
+        <v>0.06817792973462801</v>
+      </c>
+      <c r="D67">
+        <v>0.02841793297771533</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.00702949814136948</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0008974319616845524</v>
+      </c>
+      <c r="C68">
+        <v>0.08689555766838969</v>
+      </c>
+      <c r="D68">
+        <v>-0.2582345085632526</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.001465395105086799</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006225199007048466</v>
+      </c>
+      <c r="C69">
+        <v>0.05130428706307864</v>
+      </c>
+      <c r="D69">
+        <v>0.0379115776179563</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0004391409311106601</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001960643389183407</v>
+      </c>
+      <c r="C70">
+        <v>0.005064507072345438</v>
+      </c>
+      <c r="D70">
+        <v>0.00230157769559147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.001907093245274824</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.00552470054563626</v>
+      </c>
+      <c r="C71">
+        <v>0.09180550483109338</v>
+      </c>
+      <c r="D71">
+        <v>-0.3041228677088678</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003611768199218689</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01662720579697952</v>
+      </c>
+      <c r="C72">
+        <v>0.1558261862694261</v>
+      </c>
+      <c r="D72">
+        <v>0.01483838911740414</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01069174249213718</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03184640092094589</v>
+      </c>
+      <c r="C73">
+        <v>0.2833192379325487</v>
+      </c>
+      <c r="D73">
+        <v>0.05463565320806271</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005729833733601584</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002022777504911699</v>
+      </c>
+      <c r="C74">
+        <v>0.1024758201538547</v>
+      </c>
+      <c r="D74">
+        <v>0.036554873596244</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.003938264332573404</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01134310513194113</v>
+      </c>
+      <c r="C75">
+        <v>0.1232191155375292</v>
+      </c>
+      <c r="D75">
+        <v>0.02161604452368405</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.006575093564190689</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02231732374815878</v>
+      </c>
+      <c r="C76">
+        <v>0.1484836936735554</v>
+      </c>
+      <c r="D76">
+        <v>0.05688515953914342</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001700887139618287</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02178822914171503</v>
+      </c>
+      <c r="C77">
+        <v>0.1130786815345203</v>
+      </c>
+      <c r="D77">
+        <v>0.05002021454686943</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001787518962746138</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01502606453633122</v>
+      </c>
+      <c r="C78">
+        <v>0.09658663967545647</v>
+      </c>
+      <c r="D78">
+        <v>0.07606191333819054</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02291223870897167</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03855688025997327</v>
+      </c>
+      <c r="C79">
+        <v>0.1573046432688207</v>
+      </c>
+      <c r="D79">
+        <v>0.03105224247626105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.00747480659415522</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01006629565633511</v>
+      </c>
+      <c r="C80">
+        <v>0.03841399141523054</v>
+      </c>
+      <c r="D80">
+        <v>0.03081591216454951</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.00140049478945781</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01583154808516</v>
+      </c>
+      <c r="C81">
+        <v>0.1298314615503946</v>
+      </c>
+      <c r="D81">
+        <v>0.03818439489572551</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.003891522644050577</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02011558174548569</v>
+      </c>
+      <c r="C82">
+        <v>0.1386168978736967</v>
+      </c>
+      <c r="D82">
+        <v>0.04221936335834199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.006327539324952577</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01056802026460593</v>
+      </c>
+      <c r="C83">
+        <v>0.05923270698818874</v>
+      </c>
+      <c r="D83">
+        <v>0.04946362522103509</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01385477723670583</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01185823143519282</v>
+      </c>
+      <c r="C84">
+        <v>0.03725885647119247</v>
+      </c>
+      <c r="D84">
+        <v>-0.004877186087250496</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01440007728724767</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.0294924588455589</v>
+      </c>
+      <c r="C85">
+        <v>0.1249740742137973</v>
+      </c>
+      <c r="D85">
+        <v>0.04032006784383034</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0008143365775178454</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004547122361064009</v>
+      </c>
+      <c r="C86">
+        <v>0.04916851539248727</v>
+      </c>
+      <c r="D86">
+        <v>0.0310050060860541</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.003266261687250601</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01078021057700493</v>
+      </c>
+      <c r="C87">
+        <v>0.1283712743743775</v>
+      </c>
+      <c r="D87">
+        <v>0.07422562444750024</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01144790189319947</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.00288472512232539</v>
+      </c>
+      <c r="C88">
+        <v>0.06364681734261554</v>
+      </c>
+      <c r="D88">
+        <v>0.02576413982431676</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01490981841440166</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.00191902211068222</v>
+      </c>
+      <c r="C89">
+        <v>0.1395859784922836</v>
+      </c>
+      <c r="D89">
+        <v>-0.3195025829865073</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.004472466405564873</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.00650552425701739</v>
+      </c>
+      <c r="C90">
+        <v>0.1194025247612695</v>
+      </c>
+      <c r="D90">
+        <v>-0.3139857982112232</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.000995208617079472</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01051970171440706</v>
+      </c>
+      <c r="C91">
+        <v>0.09974664580474554</v>
+      </c>
+      <c r="D91">
+        <v>0.02536689266201982</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01154105629748177</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0003684949813284542</v>
+      </c>
+      <c r="C92">
+        <v>0.1347625837142105</v>
+      </c>
+      <c r="D92">
+        <v>-0.3251777137996448</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.002047710480440164</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004489819864367497</v>
+      </c>
+      <c r="C93">
+        <v>0.1049240471627323</v>
+      </c>
+      <c r="D93">
+        <v>-0.3002224062638418</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.001014721015909324</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02192729685325388</v>
+      </c>
+      <c r="C94">
+        <v>0.1444017115467217</v>
+      </c>
+      <c r="D94">
+        <v>0.05132026545004855</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.002335419535097603</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01665211558162688</v>
+      </c>
+      <c r="C95">
+        <v>0.1213584671556114</v>
+      </c>
+      <c r="D95">
+        <v>0.06562631704737865</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0009889078134567102</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.0369368542153595</v>
+      </c>
+      <c r="C97">
+        <v>0.2237523132730991</v>
+      </c>
+      <c r="D97">
+        <v>-0.00098445555798866</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.001949088902782039</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.0379297065613013</v>
+      </c>
+      <c r="C98">
+        <v>0.253370876367835</v>
+      </c>
+      <c r="D98">
+        <v>0.04151418688259603</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9855344204974128</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9813602027503384</v>
+      </c>
+      <c r="C99">
+        <v>-0.119736307735511</v>
+      </c>
+      <c r="D99">
+        <v>-0.02489331463155548</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001019345182745614</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002665771511383556</v>
+      </c>
+      <c r="C101">
+        <v>0.04891879032479136</v>
+      </c>
+      <c r="D101">
+        <v>0.00931717752018198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
